--- a/inst/samples/Data4Test1/Admin/faculty.xlsx
+++ b/inst/samples/Data4Test1/Admin/faculty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omunet-my.sharepoint.com/personal/s21413e_omu_ac_jp/Documents/教務委員/Matching/Data/Admin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1684bc3b7bd79ed3/Projects/omueconMatch/inst/samples/Data4Test1/Admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{6CB48D5E-F43F-A344-AB04-6F15F8BA8081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B794CD63-B288-8B44-BC89-A474504725B3}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{6CB48D5E-F43F-A344-AB04-6F15F8BA8081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9390217D-224C-7148-9719-A25F4384B464}"/>
   <bookViews>
     <workbookView xWindow="3560" yWindow="740" windowWidth="17900" windowHeight="17040" xr2:uid="{56E0F391-1520-9245-91B6-31950EE167B6}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>氏名</t>
-  </si>
-  <si>
     <t>教員A</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>PROFidC</t>
+  </si>
+  <si>
+    <t>教員名</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
